--- a/data/trans_bre/P35_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-3,9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>1,01</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-60,22%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-82,84%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-72,16%</t>
+          <t>-59,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>127,97%</t>
+          <t>-81,2%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-62,6%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-78,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>128,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,40 +720,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 0,72</t>
+          <t>-8,91; 0,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -1,26</t>
+          <t>-9,46; -0,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 0,52</t>
+          <t>-6,39; 0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,85</t>
+          <t>-9,24; 0,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-92,37; 41,87</t>
+          <t>-0,87; 4,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>-91,83; 61,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 16,13</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,04</t>
+          <t>-11,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-2,1</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-2,83</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-85,89%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,96%</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-78,75%</t>
+          <t>-83,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>-49,92%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-77,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-38,43%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>-84,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-78,56%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,39; -6,05</t>
+          <t>-22,8; -5,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 1,35</t>
+          <t>-7,21; 1,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -2,56</t>
+          <t>-10,59; -2,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 0,0</t>
+          <t>-7,2; 2,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-97,01; -57,2</t>
+          <t>-8,74; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,2; 52,42</t>
+          <t>-9,61; -0,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-94,69; -37,04</t>
+          <t>-97,14; -50,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>-82,28; 43,66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-94,34; -31,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-83,07; 107,95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 33,95</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,9</t>
+          <t>-11,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>-9,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,12</t>
+          <t>-8,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-6,16</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-6,36</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-73,34%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-76,1%</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-73,74%</t>
+          <t>-74,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-72,37%</t>
+          <t>-75,33%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-72,77%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-60,2%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-72,36%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-33,58%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -4,86</t>
+          <t>-17,78; -5,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -5,92</t>
+          <t>-14,32; -5,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -4,73</t>
+          <t>-14,32; -4,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,17; -2,78</t>
+          <t>-11,43; -1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-87,7; -43,74</t>
+          <t>-11,01; -2,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,49; -52,88</t>
+          <t>-7,18; 1,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-87,81; -51,25</t>
+          <t>-87,74; -47,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-89,66; -31,22</t>
+          <t>-88,79; -49,92</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-86,78; -49,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-82,98; -18,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-91,26; -26,58</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-75,5; 60,27</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,28</t>
+          <t>-17,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,37</t>
+          <t>-16,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,52</t>
+          <t>-17,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-11,12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-10,23</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-65,9%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>-15,13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-65,89%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>-70,59%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-76,22%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-75,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-65,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>-72,72%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-80,51%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,73; -10,91</t>
+          <t>-24,24; -10,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,9; -11,21</t>
+          <t>-22,42; -11,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -12,11</t>
+          <t>-23,07; -11,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,31; -5,16</t>
+          <t>-16,32; -5,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,2; -48,43</t>
+          <t>-16,26; -5,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,49; -55,32</t>
+          <t>-21,52; -9,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-85,66; -62,25</t>
+          <t>-78,84; -46,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,25; -46,04</t>
+          <t>-81,09; -54,39</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-85,1; -61,1</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-79,92; -40,63</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-88,84; -45,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-91,61; -58,62</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-23,3</t>
+          <t>-23,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-21,92</t>
+          <t>-22,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-27,78</t>
+          <t>-27,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-14,35</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-18,37</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-69,75%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-65,75%</t>
+          <t>-11,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-77,89%</t>
+          <t>-70,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-66,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-77,64%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-53,46%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>-75,38%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-56,22%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,67; -16,38</t>
+          <t>-31,46; -15,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,53; -14,62</t>
+          <t>-28,79; -14,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -21,11</t>
+          <t>-35,44; -21,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,7; -11,54</t>
+          <t>-21,75; -6,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-80,62; -53,11</t>
+          <t>-25,61; -11,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-76,62; -50,73</t>
+          <t>-18,14; -4,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-85,34; -66,03</t>
+          <t>-82,09; -54,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-87,35; -56,39</t>
+          <t>-76,59; -48,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-86,83; -65,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-70,0; -27,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-86,56; -53,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-73,6; -20,86</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,18</t>
+          <t>-20,99</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,27</t>
+          <t>-25,2</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,79</t>
+          <t>-31,23</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-33,26</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>-27,84</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-73,11%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-79,05%</t>
+          <t>-22,74</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-85,96%</t>
+          <t>-72,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-78,53%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-85,27%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-83,67%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>-91,84%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-79,91%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,31; -13,71</t>
+          <t>-28,38; -12,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,53; -17,4</t>
+          <t>-33,61; -17,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,62; -23,66</t>
+          <t>-39,77; -22,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,85; -20,6</t>
+          <t>-42,98; -25,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,87; -56,83</t>
+          <t>-36,34; -19,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,82; -65,79</t>
+          <t>-30,81; -14,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-92,23; -76,4</t>
+          <t>-83,36; -54,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-97,34; -80,03</t>
+          <t>-87,1; -65,22</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-91,51; -75,05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-92,04; -70,79</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-96,89; -79,83</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-89,97; -60,7</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-14,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,26</t>
+          <t>-13,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-15,26</t>
+          <t>-14,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-11,67</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>-10,56</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-70,3%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-71,14%</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-78,7%</t>
+          <t>-70,24%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>-70,92%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-77,98%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-67,64%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>-78,56%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-68,41%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -11,48</t>
+          <t>-17,16; -11,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -10,97</t>
+          <t>-15,47; -10,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -12,59</t>
+          <t>-17,51; -12,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -8,33</t>
+          <t>-14,59; -9,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-76,79; -61,68</t>
+          <t>-13,23; -8,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-76,9; -63,58</t>
+          <t>-11,4; -6,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-83,35; -72,05</t>
+          <t>-76,58; -61,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-85,04; -69,76</t>
+          <t>-77,13; -63,76</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-83,05; -72,12</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-75,59; -57,68</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-85,64; -69,57</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-78,02; -56,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
